--- a/Formated/6-2-Task1-2016-06-07-10-17-35.xlsx
+++ b/Formated/6-2-Task1-2016-06-07-10-17-35.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="6-2-Task1-2016-06-07-10-17-35" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,70 +22,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
-    <t>6-Task1</t>
+    <t xml:space="preserve">6-Task1</t>
   </si>
   <si>
-    <t>Time</t>
+    <t xml:space="preserve">Time</t>
   </si>
   <si>
-    <t>Translation X</t>
+    <t xml:space="preserve">Translation X</t>
   </si>
   <si>
-    <t>Translation Y</t>
+    <t xml:space="preserve">Translation Y</t>
   </si>
   <si>
-    <t>Translation Z</t>
+    <t xml:space="preserve">Translation Z</t>
   </si>
   <si>
-    <t>Rotation X</t>
+    <t xml:space="preserve">Rotation X</t>
   </si>
   <si>
-    <t>Rotation Y</t>
+    <t xml:space="preserve">Rotation Y</t>
   </si>
   <si>
-    <t>Rotation Z</t>
+    <t xml:space="preserve">Rotation Z</t>
   </si>
   <si>
-    <t>Rotation W</t>
+    <t xml:space="preserve">Rotation W</t>
   </si>
   <si>
-    <t>Scalling</t>
+    <t xml:space="preserve">Scalling</t>
   </si>
   <si>
-    <t>Camera X</t>
+    <t xml:space="preserve">Camera X</t>
   </si>
   <si>
-    <t>Camera Y</t>
+    <t xml:space="preserve">Camera Y</t>
   </si>
   <si>
-    <t>Camera Z</t>
+    <t xml:space="preserve">Camera Z</t>
   </si>
   <si>
-    <t>Camera W</t>
+    <t xml:space="preserve">Camera W</t>
   </si>
   <si>
-    <t>IsInCollision</t>
+    <t xml:space="preserve">IsInCollision</t>
   </si>
   <si>
-    <t>CollisionForce X</t>
+    <t xml:space="preserve">CollisionForce X</t>
   </si>
   <si>
-    <t>CollisionForce Y</t>
+    <t xml:space="preserve">CollisionForce Y</t>
   </si>
   <si>
-    <t>CollisionForce Z</t>
+    <t xml:space="preserve">CollisionForce Z</t>
   </si>
   <si>
-    <t>Checkpoint0</t>
+    <t xml:space="preserve">Checkpoint0</t>
   </si>
   <si>
-    <t>Checkpoint1</t>
+    <t xml:space="preserve">Checkpoint1</t>
   </si>
   <si>
-    <t>User</t>
+    <t xml:space="preserve">User</t>
   </si>
   <si>
-    <t>Connected</t>
+    <t xml:space="preserve">Connected</t>
   </si>
 </sst>
 </file>
@@ -93,13 +93,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -183,49 +184,49 @@
   </sheetPr>
   <dimension ref="A1:AU334"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.4285714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.7704081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.31632653061225"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="32" min="30" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="5.31632653061225"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="12.1326530612245"/>
-    <col collapsed="false" hidden="false" max="38" min="37" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="13.2397959183673"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="13.3826530612245"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="27" min="26" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="32" min="30" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="38" min="37" style="0" width="11.7448979591837"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="46" min="44" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="48" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
